--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Benefit</t>
   </si>
@@ -28,31 +28,31 @@
     <t>Plan B</t>
   </si>
   <si>
-    <t>Plan C</t>
-  </si>
-  <si>
-    <t>Feature 1</t>
+    <t>Doctor Visits</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Feature 2</t>
-  </si>
-  <si>
-    <t>Feature 3</t>
-  </si>
-  <si>
-    <t>$10</t>
-  </si>
-  <si>
     <t>$15</t>
   </si>
   <si>
-    <t>$25</t>
+    <t>ER Visit</t>
+  </si>
+  <si>
+    <t>$20</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>COpay</t>
+  </si>
+  <si>
+    <t>XRAY Visit</t>
+  </si>
+  <si>
+    <t>$120</t>
   </si>
 </sst>
 </file>
@@ -496,22 +496,18 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <v/>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <v/>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <v/>
@@ -519,65 +515,63 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <v/>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F2" s="1" t="inlineStr"/>
+      <c r="G2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <v/>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <v/>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>50.0</v>
-      </c>
       <c r="D3" s="1" t="inlineStr">
         <v/>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <v/>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>200.0</v>
-      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="inlineStr"/>
+      <c r="G3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <v/>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <v/>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <v/>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="inlineStr"/>
+      <c r="G4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="inlineStr"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="inlineStr"/>
-      <c r="E5" s="1" t="n"/>
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <v/>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <v/>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="1" t="inlineStr"/>
       <c r="G5" s="1" t="n"/>
     </row>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Benefit</t>
   </si>
@@ -22,37 +22,43 @@
     <t/>
   </si>
   <si>
-    <t>Plan A</t>
-  </si>
-  <si>
-    <t>Plan B</t>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Elite</t>
   </si>
   <si>
     <t>Doctor Visits</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>$15</t>
+    <t>$20 copay</t>
+  </si>
+  <si>
+    <t>Covered 100%</t>
   </si>
   <si>
     <t>ER Visit</t>
   </si>
   <si>
-    <t>$20</t>
+    <t>$250 copay</t>
+  </si>
+  <si>
+    <t>$150 copay</t>
+  </si>
+  <si>
+    <t>Prescription</t>
+  </si>
+  <si>
+    <t>$10 copay</t>
+  </si>
+  <si>
+    <t>$5 copay</t>
   </si>
   <si>
     <t>Free</t>
-  </si>
-  <si>
-    <t>COpay</t>
-  </si>
-  <si>
-    <t>XRAY Visit</t>
-  </si>
-  <si>
-    <t>$120</t>
   </si>
 </sst>
 </file>
@@ -496,82 +502,88 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <v/>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <v/>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="inlineStr"/>
-      <c r="G2" s="1" t="n"/>
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <v/>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <v/>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <v/>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <v/>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <v/>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <v/>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="inlineStr"/>
-      <c r="G3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <v/>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <v/>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="inlineStr"/>
-      <c r="G4" s="1" t="n"/>
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <v/>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <v/>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <v/>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="inlineStr"/>
+      <c r="E5" s="1" t="n"/>
       <c r="F5" s="1" t="inlineStr"/>
       <c r="G5" s="1" t="n"/>
     </row>
